--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Notch3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Psen1-Notch3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H2">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J2">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.87051672530531</v>
+        <v>2.987818</v>
       </c>
       <c r="N2">
-        <v>2.87051672530531</v>
+        <v>8.963454</v>
       </c>
       <c r="O2">
-        <v>0.03802013550685467</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="P2">
-        <v>0.03802013550685467</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="Q2">
-        <v>22.6819214342871</v>
+        <v>28.909672819664</v>
       </c>
       <c r="R2">
-        <v>22.6819214342871</v>
+        <v>260.187055376976</v>
       </c>
       <c r="S2">
-        <v>0.001915199909020347</v>
+        <v>0.002165405206946847</v>
       </c>
       <c r="T2">
-        <v>0.001915199909020347</v>
+        <v>0.002165405206946847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H3">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J3">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.59304174837258</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N3">
-        <v>4.59304174837258</v>
+        <v>14.22398</v>
       </c>
       <c r="O3">
-        <v>0.06083506433608837</v>
+        <v>0.05825042696427194</v>
       </c>
       <c r="P3">
-        <v>0.06083506433608837</v>
+        <v>0.05825042696427195</v>
       </c>
       <c r="Q3">
-        <v>36.29277306158423</v>
+        <v>45.87635614501333</v>
       </c>
       <c r="R3">
-        <v>36.29277306158423</v>
+        <v>412.88720530512</v>
       </c>
       <c r="S3">
-        <v>0.003064463293685987</v>
+        <v>0.003436251288343512</v>
       </c>
       <c r="T3">
-        <v>0.003064463293685987</v>
+        <v>0.003436251288343512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H4">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J4">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.211709112138957</v>
+        <v>0.1099783333333333</v>
       </c>
       <c r="N4">
-        <v>0.211709112138957</v>
+        <v>0.329935</v>
       </c>
       <c r="O4">
-        <v>0.002804097624863314</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="P4">
-        <v>0.002804097624863314</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="Q4">
-        <v>1.672858898931431</v>
+        <v>1.064133636626667</v>
       </c>
       <c r="R4">
-        <v>1.672858898931431</v>
+        <v>9.57720272964</v>
       </c>
       <c r="S4">
-        <v>0.000141251666897772</v>
+        <v>7.970621224295989E-05</v>
       </c>
       <c r="T4">
-        <v>0.000141251666897772</v>
+        <v>7.970621224295989E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.90168586524248</v>
+        <v>9.675848</v>
       </c>
       <c r="H5">
-        <v>7.90168586524248</v>
+        <v>29.027544</v>
       </c>
       <c r="I5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J5">
-        <v>0.05037330570994558</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>67.8246402140326</v>
+        <v>0.2117236666666667</v>
       </c>
       <c r="N5">
-        <v>67.8246402140326</v>
+        <v>0.635171</v>
       </c>
       <c r="O5">
-        <v>0.8983407025321938</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="P5">
-        <v>0.8983407025321938</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="Q5">
-        <v>535.9290008943781</v>
+        <v>2.048606016669333</v>
       </c>
       <c r="R5">
-        <v>535.9290008943781</v>
+        <v>18.437454150024</v>
       </c>
       <c r="S5">
-        <v>0.04525239084034148</v>
+        <v>0.000153445601517187</v>
       </c>
       <c r="T5">
-        <v>0.04525239084034148</v>
+        <v>0.000153445601517187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6834392467706</v>
+        <v>9.675848</v>
       </c>
       <c r="H6">
-        <v>29.6834392467706</v>
+        <v>29.027544</v>
       </c>
       <c r="I6">
-        <v>0.189232144279161</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J6">
-        <v>0.189232144279161</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.87051672530531</v>
+        <v>0.357675</v>
       </c>
       <c r="N6">
-        <v>2.87051672530531</v>
+        <v>1.073025</v>
       </c>
       <c r="O6">
-        <v>0.03802013550685467</v>
+        <v>0.004394280953245006</v>
       </c>
       <c r="P6">
-        <v>0.03802013550685467</v>
+        <v>0.004394280953245007</v>
       </c>
       <c r="Q6">
-        <v>85.20680882243906</v>
+        <v>3.4608089334</v>
       </c>
       <c r="R6">
-        <v>85.20680882243906</v>
+        <v>31.1472804006</v>
       </c>
       <c r="S6">
-        <v>0.007194631767746376</v>
+        <v>0.0002592230542137149</v>
       </c>
       <c r="T6">
-        <v>0.007194631767746376</v>
+        <v>0.000259223054213715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.6834392467706</v>
+        <v>9.675848</v>
       </c>
       <c r="H7">
-        <v>29.6834392467706</v>
+        <v>29.027544</v>
       </c>
       <c r="I7">
-        <v>0.189232144279161</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="J7">
-        <v>0.189232144279161</v>
+        <v>0.05899100603075658</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.59304174837258</v>
+        <v>72.98704766666667</v>
       </c>
       <c r="N7">
-        <v>4.59304174837258</v>
+        <v>218.961143</v>
       </c>
       <c r="O7">
-        <v>0.06083506433608837</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="P7">
-        <v>0.06083506433608837</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="Q7">
-        <v>136.3372756956985</v>
+        <v>706.2115791914214</v>
       </c>
       <c r="R7">
-        <v>136.3372756956985</v>
+        <v>6355.904212722791</v>
       </c>
       <c r="S7">
-        <v>0.01151194967167872</v>
+        <v>0.05289697466749236</v>
       </c>
       <c r="T7">
-        <v>0.01151194967167872</v>
+        <v>0.05289697466749236</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H8">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J8">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.211709112138957</v>
+        <v>2.987818</v>
       </c>
       <c r="N8">
-        <v>0.211709112138957</v>
+        <v>8.963454</v>
       </c>
       <c r="O8">
-        <v>0.002804097624863314</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="P8">
-        <v>0.002804097624863314</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="Q8">
-        <v>6.284254568164474</v>
+        <v>89.01131104338002</v>
       </c>
       <c r="R8">
-        <v>6.284254568164474</v>
+        <v>801.1017993904202</v>
       </c>
       <c r="S8">
-        <v>0.0005306254063209873</v>
+        <v>0.00666716491787473</v>
       </c>
       <c r="T8">
-        <v>0.0005306254063209873</v>
+        <v>0.006667164917874731</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.6834392467706</v>
+        <v>29.79141</v>
       </c>
       <c r="H9">
-        <v>29.6834392467706</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J9">
-        <v>0.189232144279161</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.8246402140326</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N9">
-        <v>67.8246402140326</v>
+        <v>14.22398</v>
       </c>
       <c r="O9">
-        <v>0.8983407025321938</v>
+        <v>0.05825042696427194</v>
       </c>
       <c r="P9">
-        <v>0.8983407025321938</v>
+        <v>0.05825042696427195</v>
       </c>
       <c r="Q9">
-        <v>2013.268587227311</v>
+        <v>141.2508066706</v>
       </c>
       <c r="R9">
-        <v>2013.268587227311</v>
+        <v>1271.2572600354</v>
       </c>
       <c r="S9">
-        <v>0.169994937433415</v>
+        <v>0.01058003091760741</v>
       </c>
       <c r="T9">
-        <v>0.169994937433415</v>
+        <v>0.01058003091760741</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.6616182770752</v>
+        <v>29.79141</v>
       </c>
       <c r="H10">
-        <v>29.6616182770752</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I10">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J10">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>2.87051672530531</v>
+        <v>0.1099783333333333</v>
       </c>
       <c r="N10">
-        <v>2.87051672530531</v>
+        <v>0.329935</v>
       </c>
       <c r="O10">
-        <v>0.03802013550685467</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="P10">
-        <v>0.03802013550685467</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="Q10">
-        <v>85.14417136396602</v>
+        <v>3.27640961945</v>
       </c>
       <c r="R10">
-        <v>85.14417136396602</v>
+        <v>29.48768657505</v>
       </c>
       <c r="S10">
-        <v>0.007189342830690653</v>
+        <v>0.000245411094560088</v>
       </c>
       <c r="T10">
-        <v>0.007189342830690653</v>
+        <v>0.000245411094560088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>29.6616182770752</v>
+        <v>29.79141</v>
       </c>
       <c r="H11">
-        <v>29.6616182770752</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I11">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J11">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.59304174837258</v>
+        <v>0.2117236666666667</v>
       </c>
       <c r="N11">
-        <v>4.59304174837258</v>
+        <v>0.635171</v>
       </c>
       <c r="O11">
-        <v>0.06083506433608837</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="P11">
-        <v>0.06083506433608837</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="Q11">
-        <v>136.2370510708976</v>
+        <v>6.30754656037</v>
       </c>
       <c r="R11">
-        <v>136.2370510708976</v>
+        <v>56.76791904333001</v>
       </c>
       <c r="S11">
-        <v>0.01150348697627364</v>
+        <v>0.0004724506655639008</v>
       </c>
       <c r="T11">
-        <v>0.01150348697627364</v>
+        <v>0.0004724506655639009</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>29.6616182770752</v>
+        <v>29.79141</v>
       </c>
       <c r="H12">
-        <v>29.6616182770752</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I12">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J12">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.211709112138957</v>
+        <v>0.357675</v>
       </c>
       <c r="N12">
-        <v>0.211709112138957</v>
+        <v>1.073025</v>
       </c>
       <c r="O12">
-        <v>0.002804097624863314</v>
+        <v>0.004394280953245006</v>
       </c>
       <c r="P12">
-        <v>0.002804097624863314</v>
+        <v>0.004394280953245007</v>
       </c>
       <c r="Q12">
-        <v>6.27963487004425</v>
+        <v>10.65564257175</v>
       </c>
       <c r="R12">
-        <v>6.27963487004425</v>
+        <v>95.90078314575003</v>
       </c>
       <c r="S12">
-        <v>0.0005302353315451273</v>
+        <v>0.000798133692213128</v>
       </c>
       <c r="T12">
-        <v>0.0005302353315451273</v>
+        <v>0.0007981336922131282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>29.6616182770752</v>
+        <v>29.79141</v>
       </c>
       <c r="H13">
-        <v>29.6616182770752</v>
+        <v>89.37423000000001</v>
       </c>
       <c r="I13">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389473</v>
       </c>
       <c r="J13">
-        <v>0.1890930354363014</v>
+        <v>0.1816301007389474</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>67.8246402140326</v>
+        <v>72.98704766666667</v>
       </c>
       <c r="N13">
-        <v>67.8246402140326</v>
+        <v>218.961143</v>
       </c>
       <c r="O13">
-        <v>0.8983407025321938</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="P13">
-        <v>0.8983407025321938</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="Q13">
-        <v>2011.788587808599</v>
+        <v>2174.38706172721</v>
       </c>
       <c r="R13">
-        <v>2011.788587808599</v>
+        <v>19569.48355554489</v>
       </c>
       <c r="S13">
-        <v>0.1698699702977921</v>
+        <v>0.1628669094511281</v>
       </c>
       <c r="T13">
-        <v>0.1698699702977921</v>
+        <v>0.1628669094511281</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>36.5874850209747</v>
+        <v>33.094228</v>
       </c>
       <c r="H14">
-        <v>36.5874850209747</v>
+        <v>99.282684</v>
       </c>
       <c r="I14">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J14">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.87051672530531</v>
+        <v>2.987818</v>
       </c>
       <c r="N14">
-        <v>2.87051672530531</v>
+        <v>8.963454</v>
       </c>
       <c r="O14">
-        <v>0.03802013550685467</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="P14">
-        <v>0.03802013550685467</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="Q14">
-        <v>105.0249876895654</v>
+        <v>98.87953011450401</v>
       </c>
       <c r="R14">
-        <v>105.0249876895654</v>
+        <v>889.9157710305361</v>
       </c>
       <c r="S14">
-        <v>0.008868025023835055</v>
+        <v>0.007406318663861415</v>
       </c>
       <c r="T14">
-        <v>0.008868025023835055</v>
+        <v>0.007406318663861415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>36.5874850209747</v>
+        <v>33.094228</v>
       </c>
       <c r="H15">
-        <v>36.5874850209747</v>
+        <v>99.282684</v>
       </c>
       <c r="I15">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J15">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.59304174837258</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N15">
-        <v>4.59304174837258</v>
+        <v>14.22398</v>
       </c>
       <c r="O15">
-        <v>0.06083506433608837</v>
+        <v>0.05825042696427194</v>
       </c>
       <c r="P15">
-        <v>0.06083506433608837</v>
+        <v>0.05825042696427195</v>
       </c>
       <c r="Q15">
-        <v>168.0478461692932</v>
+        <v>156.9105457291467</v>
       </c>
       <c r="R15">
-        <v>168.0478461692932</v>
+        <v>1412.19491156232</v>
       </c>
       <c r="S15">
-        <v>0.01418950421051978</v>
+        <v>0.0117529836766487</v>
       </c>
       <c r="T15">
-        <v>0.01418950421051978</v>
+        <v>0.0117529836766487</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>36.5874850209747</v>
+        <v>33.094228</v>
       </c>
       <c r="H16">
-        <v>36.5874850209747</v>
+        <v>99.282684</v>
       </c>
       <c r="I16">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J16">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.211709112138957</v>
+        <v>0.1099783333333333</v>
       </c>
       <c r="N16">
-        <v>0.211709112138957</v>
+        <v>0.329935</v>
       </c>
       <c r="O16">
-        <v>0.002804097624863314</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="P16">
-        <v>0.002804097624863314</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="Q16">
-        <v>7.745903969187941</v>
+        <v>3.639648038393333</v>
       </c>
       <c r="R16">
-        <v>7.745903969187941</v>
+        <v>32.75683234554</v>
       </c>
       <c r="S16">
-        <v>0.0006540431162345819</v>
+        <v>0.0002726185406162753</v>
       </c>
       <c r="T16">
-        <v>0.0006540431162345819</v>
+        <v>0.0002726185406162753</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>36.5874850209747</v>
+        <v>33.094228</v>
       </c>
       <c r="H17">
-        <v>36.5874850209747</v>
+        <v>99.282684</v>
       </c>
       <c r="I17">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J17">
-        <v>0.2332454870455744</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>67.8246402140326</v>
+        <v>0.2117236666666667</v>
       </c>
       <c r="N17">
-        <v>67.8246402140326</v>
+        <v>0.635171</v>
       </c>
       <c r="O17">
-        <v>0.8983407025321938</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="P17">
-        <v>0.8983407025321938</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="Q17">
-        <v>2481.533007883916</v>
+        <v>7.006831297662667</v>
       </c>
       <c r="R17">
-        <v>2481.533007883916</v>
+        <v>63.06148167896401</v>
       </c>
       <c r="S17">
-        <v>0.209533914694985</v>
+        <v>0.0005248288028301944</v>
       </c>
       <c r="T17">
-        <v>0.209533914694985</v>
+        <v>0.0005248288028301944</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>40.1590691026041</v>
+        <v>33.094228</v>
       </c>
       <c r="H18">
-        <v>40.1590691026041</v>
+        <v>99.282684</v>
       </c>
       <c r="I18">
-        <v>0.2560143619263239</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J18">
-        <v>0.2560143619263239</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>2.87051672530531</v>
+        <v>0.357675</v>
       </c>
       <c r="N18">
-        <v>2.87051672530531</v>
+        <v>1.073025</v>
       </c>
       <c r="O18">
-        <v>0.03802013550685467</v>
+        <v>0.004394280953245006</v>
       </c>
       <c r="P18">
-        <v>0.03802013550685467</v>
+        <v>0.004394280953245007</v>
       </c>
       <c r="Q18">
-        <v>115.2772795317168</v>
+        <v>11.8369779999</v>
       </c>
       <c r="R18">
-        <v>115.2772795317168</v>
+        <v>106.5328019991</v>
       </c>
       <c r="S18">
-        <v>0.009733700732139772</v>
+        <v>0.0008866186053155283</v>
       </c>
       <c r="T18">
-        <v>0.009733700732139772</v>
+        <v>0.0008866186053155284</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>40.1590691026041</v>
+        <v>33.094228</v>
       </c>
       <c r="H19">
-        <v>40.1590691026041</v>
+        <v>99.282684</v>
       </c>
       <c r="I19">
-        <v>0.2560143619263239</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="J19">
-        <v>0.2560143619263239</v>
+        <v>0.2017664811943339</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.59304174837258</v>
+        <v>72.98704766666667</v>
       </c>
       <c r="N19">
-        <v>4.59304174837258</v>
+        <v>218.961143</v>
       </c>
       <c r="O19">
-        <v>0.06083506433608837</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="P19">
-        <v>0.06083506433608837</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="Q19">
-        <v>184.45228096404</v>
+        <v>2415.449996527535</v>
       </c>
       <c r="R19">
-        <v>184.45228096404</v>
+        <v>21739.04996874781</v>
       </c>
       <c r="S19">
-        <v>0.01557465017875053</v>
+        <v>0.1809231129050618</v>
       </c>
       <c r="T19">
-        <v>0.01557465017875053</v>
+        <v>0.1809231129050618</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>40.1590691026041</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H20">
-        <v>40.1590691026041</v>
+        <v>112.00634</v>
       </c>
       <c r="I20">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J20">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.211709112138957</v>
+        <v>2.987818</v>
       </c>
       <c r="N20">
-        <v>0.211709112138957</v>
+        <v>8.963454</v>
       </c>
       <c r="O20">
-        <v>0.002804097624863314</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="P20">
-        <v>0.002804097624863314</v>
+        <v>0.03670737884717296</v>
       </c>
       <c r="Q20">
-        <v>8.502040864039333</v>
+        <v>111.5515195887067</v>
       </c>
       <c r="R20">
-        <v>8.502040864039333</v>
+        <v>1003.96367629836</v>
       </c>
       <c r="S20">
-        <v>0.0007178892642085016</v>
+        <v>0.008355481671031447</v>
       </c>
       <c r="T20">
-        <v>0.0007178892642085016</v>
+        <v>0.008355481671031449</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>40.1590691026041</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H21">
-        <v>40.1590691026041</v>
+        <v>112.00634</v>
       </c>
       <c r="I21">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J21">
-        <v>0.2560143619263239</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>67.8246402140326</v>
+        <v>4.741326666666667</v>
       </c>
       <c r="N21">
-        <v>67.8246402140326</v>
+        <v>14.22398</v>
       </c>
       <c r="O21">
-        <v>0.8983407025321938</v>
+        <v>0.05825042696427194</v>
       </c>
       <c r="P21">
-        <v>0.8983407025321938</v>
+        <v>0.05825042696427195</v>
       </c>
       <c r="Q21">
-        <v>2723.774413214596</v>
+        <v>177.0195488925777</v>
       </c>
       <c r="R21">
-        <v>2723.774413214596</v>
+        <v>1593.1759400332</v>
       </c>
       <c r="S21">
-        <v>0.2299881217512252</v>
+        <v>0.01325919719999878</v>
       </c>
       <c r="T21">
-        <v>0.2299881217512252</v>
+        <v>0.01325919719999878</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.8692659796151</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H22">
-        <v>12.8692659796151</v>
+        <v>112.00634</v>
       </c>
       <c r="I22">
-        <v>0.08204166560269355</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J22">
-        <v>0.08204166560269355</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.87051672530531</v>
+        <v>0.1099783333333333</v>
       </c>
       <c r="N22">
-        <v>2.87051672530531</v>
+        <v>0.329935</v>
       </c>
       <c r="O22">
-        <v>0.03802013550685467</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="P22">
-        <v>0.03802013550685467</v>
+        <v>0.001351158720727747</v>
       </c>
       <c r="Q22">
-        <v>36.94144323688777</v>
+        <v>4.106090198655555</v>
       </c>
       <c r="R22">
-        <v>36.94144323688777</v>
+        <v>36.9548117879</v>
       </c>
       <c r="S22">
-        <v>0.003119235243422467</v>
+        <v>0.0003075561993325073</v>
       </c>
       <c r="T22">
-        <v>0.003119235243422467</v>
+        <v>0.0003075561993325074</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.8692659796151</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H23">
-        <v>12.8692659796151</v>
+        <v>112.00634</v>
       </c>
       <c r="I23">
-        <v>0.08204166560269355</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J23">
-        <v>0.08204166560269355</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.59304174837258</v>
+        <v>0.2117236666666667</v>
       </c>
       <c r="N23">
-        <v>4.59304174837258</v>
+        <v>0.635171</v>
       </c>
       <c r="O23">
-        <v>0.06083506433608837</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="P23">
-        <v>0.06083506433608837</v>
+        <v>0.002601169429746356</v>
       </c>
       <c r="Q23">
-        <v>59.10907591528311</v>
+        <v>7.904797664904444</v>
       </c>
       <c r="R23">
-        <v>59.10907591528311</v>
+        <v>71.14317898414001</v>
       </c>
       <c r="S23">
-        <v>0.00499101000517971</v>
+        <v>0.0005920886801528423</v>
       </c>
       <c r="T23">
-        <v>0.00499101000517971</v>
+        <v>0.0005920886801528423</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,60 +1898,60 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.8692659796151</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H24">
-        <v>12.8692659796151</v>
+        <v>112.00634</v>
       </c>
       <c r="I24">
-        <v>0.08204166560269355</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J24">
-        <v>0.08204166560269355</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.211709112138957</v>
+        <v>0.357675</v>
       </c>
       <c r="N24">
-        <v>0.211709112138957</v>
+        <v>1.073025</v>
       </c>
       <c r="O24">
-        <v>0.002804097624863314</v>
+        <v>0.004394280953245006</v>
       </c>
       <c r="P24">
-        <v>0.002804097624863314</v>
+        <v>0.004394280953245007</v>
       </c>
       <c r="Q24">
-        <v>2.724540874424398</v>
+        <v>13.3539558865</v>
       </c>
       <c r="R24">
-        <v>2.724540874424398</v>
+        <v>120.1856029785</v>
       </c>
       <c r="S24">
-        <v>0.0002300528396563432</v>
+        <v>0.001000243959533737</v>
       </c>
       <c r="T24">
-        <v>0.0002300528396563432</v>
+        <v>0.001000243959533738</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.8692659796151</v>
+        <v>37.33544666666666</v>
       </c>
       <c r="H25">
-        <v>12.8692659796151</v>
+        <v>112.00634</v>
       </c>
       <c r="I25">
-        <v>0.08204166560269355</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="J25">
-        <v>0.08204166560269355</v>
+        <v>0.2276240345522505</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>67.8246402140326</v>
+        <v>72.98704766666667</v>
       </c>
       <c r="N25">
-        <v>67.8246402140326</v>
+        <v>218.961143</v>
       </c>
       <c r="O25">
-        <v>0.8983407025321938</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="P25">
-        <v>0.8983407025321938</v>
+        <v>0.8966955850848359</v>
       </c>
       <c r="Q25">
-        <v>872.853334886084</v>
+        <v>2725.004025516291</v>
       </c>
       <c r="R25">
-        <v>872.853334886084</v>
+        <v>24525.03622964662</v>
       </c>
       <c r="S25">
-        <v>0.07370136751443504</v>
+        <v>0.2041094668422012</v>
       </c>
       <c r="T25">
-        <v>0.07370136751443504</v>
+        <v>0.2041094668422012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>40.28908533333333</v>
+      </c>
+      <c r="H26">
+        <v>120.867256</v>
+      </c>
+      <c r="I26">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="J26">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>2.987818</v>
+      </c>
+      <c r="N26">
+        <v>8.963454</v>
+      </c>
+      <c r="O26">
+        <v>0.03670737884717296</v>
+      </c>
+      <c r="P26">
+        <v>0.03670737884717296</v>
+      </c>
+      <c r="Q26">
+        <v>120.3764543624693</v>
+      </c>
+      <c r="R26">
+        <v>1083.388089262224</v>
+      </c>
+      <c r="S26">
+        <v>0.00901649087128341</v>
+      </c>
+      <c r="T26">
+        <v>0.00901649087128341</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>40.28908533333333</v>
+      </c>
+      <c r="H27">
+        <v>120.867256</v>
+      </c>
+      <c r="I27">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="J27">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>4.741326666666667</v>
+      </c>
+      <c r="N27">
+        <v>14.22398</v>
+      </c>
+      <c r="O27">
+        <v>0.05825042696427194</v>
+      </c>
+      <c r="P27">
+        <v>0.05825042696427195</v>
+      </c>
+      <c r="Q27">
+        <v>191.0237146665422</v>
+      </c>
+      <c r="R27">
+        <v>1719.21343199888</v>
+      </c>
+      <c r="S27">
+        <v>0.01430814347051011</v>
+      </c>
+      <c r="T27">
+        <v>0.01430814347051012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>40.28908533333333</v>
+      </c>
+      <c r="H28">
+        <v>120.867256</v>
+      </c>
+      <c r="I28">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="J28">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1099783333333333</v>
+      </c>
+      <c r="N28">
+        <v>0.329935</v>
+      </c>
+      <c r="O28">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="P28">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="Q28">
+        <v>4.430926456484444</v>
+      </c>
+      <c r="R28">
+        <v>39.87833810836</v>
+      </c>
+      <c r="S28">
+        <v>0.0003318872295899428</v>
+      </c>
+      <c r="T28">
+        <v>0.0003318872295899428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>40.28908533333333</v>
+      </c>
+      <c r="H29">
+        <v>120.867256</v>
+      </c>
+      <c r="I29">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="J29">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.2117236666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.635171</v>
+      </c>
+      <c r="O29">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="P29">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="Q29">
+        <v>8.530152873419556</v>
+      </c>
+      <c r="R29">
+        <v>76.771375860776</v>
+      </c>
+      <c r="S29">
+        <v>0.0006389293148828513</v>
+      </c>
+      <c r="T29">
+        <v>0.0006389293148828513</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>40.28908533333333</v>
+      </c>
+      <c r="H30">
+        <v>120.867256</v>
+      </c>
+      <c r="I30">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="J30">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.357675</v>
+      </c>
+      <c r="N30">
+        <v>1.073025</v>
+      </c>
+      <c r="O30">
+        <v>0.004394280953245006</v>
+      </c>
+      <c r="P30">
+        <v>0.004394280953245007</v>
+      </c>
+      <c r="Q30">
+        <v>14.4103985966</v>
+      </c>
+      <c r="R30">
+        <v>129.6935873694</v>
+      </c>
+      <c r="S30">
+        <v>0.001079374102567925</v>
+      </c>
+      <c r="T30">
+        <v>0.001079374102567925</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>40.28908533333333</v>
+      </c>
+      <c r="H31">
+        <v>120.867256</v>
+      </c>
+      <c r="I31">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="J31">
+        <v>0.2456315638559363</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>72.98704766666667</v>
+      </c>
+      <c r="N31">
+        <v>218.961143</v>
+      </c>
+      <c r="O31">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="P31">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="Q31">
+        <v>2940.581391670401</v>
+      </c>
+      <c r="R31">
+        <v>26465.23252503361</v>
+      </c>
+      <c r="S31">
+        <v>0.220256738867102</v>
+      </c>
+      <c r="T31">
+        <v>0.220256738867102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H32">
+        <v>41.509228</v>
+      </c>
+      <c r="I32">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J32">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>2.987818</v>
+      </c>
+      <c r="N32">
+        <v>8.963454</v>
+      </c>
+      <c r="O32">
+        <v>0.03670737884717296</v>
+      </c>
+      <c r="P32">
+        <v>0.03670737884717296</v>
+      </c>
+      <c r="Q32">
+        <v>41.34067286150134</v>
+      </c>
+      <c r="R32">
+        <v>372.066055753512</v>
+      </c>
+      <c r="S32">
+        <v>0.003096517516175115</v>
+      </c>
+      <c r="T32">
+        <v>0.003096517516175115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H33">
+        <v>41.509228</v>
+      </c>
+      <c r="I33">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J33">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>4.741326666666667</v>
+      </c>
+      <c r="N33">
+        <v>14.22398</v>
+      </c>
+      <c r="O33">
+        <v>0.05825042696427194</v>
+      </c>
+      <c r="P33">
+        <v>0.05825042696427195</v>
+      </c>
+      <c r="Q33">
+        <v>65.6029365430489</v>
+      </c>
+      <c r="R33">
+        <v>590.42642888744</v>
+      </c>
+      <c r="S33">
+        <v>0.004913820411163431</v>
+      </c>
+      <c r="T33">
+        <v>0.004913820411163432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H34">
+        <v>41.509228</v>
+      </c>
+      <c r="I34">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J34">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1099783333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.329935</v>
+      </c>
+      <c r="O34">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="P34">
+        <v>0.001351158720727747</v>
+      </c>
+      <c r="Q34">
+        <v>1.521705237797778</v>
+      </c>
+      <c r="R34">
+        <v>13.69534714018</v>
+      </c>
+      <c r="S34">
+        <v>0.000113979444385974</v>
+      </c>
+      <c r="T34">
+        <v>0.000113979444385974</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H35">
+        <v>41.509228</v>
+      </c>
+      <c r="I35">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J35">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.2117236666666667</v>
+      </c>
+      <c r="N35">
+        <v>0.635171</v>
+      </c>
+      <c r="O35">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="P35">
+        <v>0.002601169429746356</v>
+      </c>
+      <c r="Q35">
+        <v>2.929495317554222</v>
+      </c>
+      <c r="R35">
+        <v>26.365457857988</v>
+      </c>
+      <c r="S35">
+        <v>0.0002194263647993802</v>
+      </c>
+      <c r="T35">
+        <v>0.0002194263647993802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H36">
+        <v>41.509228</v>
+      </c>
+      <c r="I36">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J36">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.357675</v>
+      </c>
+      <c r="N36">
+        <v>1.073025</v>
+      </c>
+      <c r="O36">
+        <v>0.004394280953245006</v>
+      </c>
+      <c r="P36">
+        <v>0.004394280953245007</v>
+      </c>
+      <c r="Q36">
+        <v>4.948937708300001</v>
+      </c>
+      <c r="R36">
+        <v>44.54043937470001</v>
+      </c>
+      <c r="S36">
+        <v>0.0003706875394009722</v>
+      </c>
+      <c r="T36">
+        <v>0.0003706875394009723</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>13.83640933333333</v>
+      </c>
+      <c r="H37">
+        <v>41.509228</v>
+      </c>
+      <c r="I37">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="J37">
+        <v>0.0843568136277754</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>72.98704766666667</v>
+      </c>
+      <c r="N37">
+        <v>218.961143</v>
+      </c>
+      <c r="O37">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="P37">
+        <v>0.8966955850848359</v>
+      </c>
+      <c r="Q37">
+        <v>1009.878667547512</v>
+      </c>
+      <c r="R37">
+        <v>9088.908007927605</v>
+      </c>
+      <c r="S37">
+        <v>0.07564238235185053</v>
+      </c>
+      <c r="T37">
+        <v>0.07564238235185053</v>
       </c>
     </row>
   </sheetData>
